--- a/Practica6/Plantilla-calculo-hora-trabajador.xlsx
+++ b/Practica6/Plantilla-calculo-hora-trabajador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/estelagutierrezcosio/Desktop/SWII/IS2_2425/Practica6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57383C4B-559E-4A4B-B53E-1DAEF6808BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800D2083-31E4-FE46-A56F-30CFD2FC50F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23720" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="500" windowWidth="25200" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coste Hora" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -285,11 +285,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -354,6 +397,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,7 +732,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -780,7 +841,7 @@
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
@@ -846,14 +907,14 @@
       <c r="D12" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="7" t="s">
         <v>12</v>
       </c>
@@ -886,7 +947,7 @@
       </c>
       <c r="E17" s="14">
         <f>(D11+B23)/C17</f>
-        <v>18.763119713527196</v>
+        <v>18.897103716051671</v>
       </c>
       <c r="F17" s="12"/>
     </row>
@@ -925,7 +986,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="12"/>
     </row>
@@ -935,7 +996,7 @@
       </c>
       <c r="B23" s="19">
         <f>B20/B22</f>
-        <v>1500</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="C23" s="12"/>
     </row>
@@ -945,7 +1006,7 @@
       </c>
       <c r="B24" s="10">
         <f>B23/12</f>
-        <v>125</v>
+        <v>138.88888888888889</v>
       </c>
       <c r="C24" s="12"/>
     </row>
@@ -953,27 +1014,22 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-    </row>
     <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="23">
         <f>(D11+B23)/B6</f>
-        <v>135.09446193739581</v>
-      </c>
-      <c r="C27" s="12"/>
+        <v>136.05914675557202</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="25">
         <f>B27*B4</f>
-        <v>2881.5648731246524</v>
+        <v>2902.141600296351</v>
       </c>
     </row>
   </sheetData>
